--- a/Role Colours.xlsx
+++ b/Role Colours.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bots\Rainbow-Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F3DC47-626E-4762-AF3A-43C186400011}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBD5630-8451-4225-832C-0EA3A67C0180}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="queer" sheetId="1" r:id="rId1"/>
-    <sheet name="engin" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Homosexual</t>
   </si>
@@ -117,51 +116,6 @@
   </si>
   <si>
     <t>0xf5c584</t>
-  </si>
-  <si>
-    <t>Part-1</t>
-  </si>
-  <si>
-    <t>0x0</t>
-  </si>
-  <si>
-    <t>Part-2</t>
-  </si>
-  <si>
-    <t>Part-3</t>
-  </si>
-  <si>
-    <t>Part-4</t>
-  </si>
-  <si>
-    <t>Post-Grad</t>
-  </si>
-  <si>
-    <t>Biomed</t>
-  </si>
-  <si>
-    <t>Chemmat</t>
-  </si>
-  <si>
-    <t>Civil</t>
-  </si>
-  <si>
-    <t>CompSys</t>
-  </si>
-  <si>
-    <t>Electrical</t>
-  </si>
-  <si>
-    <t>EngSci</t>
-  </si>
-  <si>
-    <t>Mechanical</t>
-  </si>
-  <si>
-    <t>Mechatronics</t>
-  </si>
-  <si>
-    <t>Software</t>
   </si>
 </sst>
 </file>
@@ -482,7 +436,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,131 +607,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E342874D-6C9A-457D-BF93-88419A9A2936}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>